--- a/UkrAPP.xlsx
+++ b/UkrAPP.xlsx
@@ -1,30 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26516"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1A0706-9E6A-4000-9EFB-515039A2BD9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{EF1A0706-9E6A-4000-9EFB-515039A2BD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{892E1926-A128-4781-846E-8B10649CCF65}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Check" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCase" sheetId="2" r:id="rId2"/>
+    <sheet name="Recommendations." sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="65">
   <si>
     <t>Перевірка на різній роздільної здатності екрану.</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>Перевірка функціоналу головного меню.</t>
   </si>
   <si>
@@ -38,13 +54,187 @@
   </si>
   <si>
     <t>Пошук за індексом.</t>
+  </si>
+  <si>
+    <t>Перевірка зміни фону (темна, світла)</t>
+  </si>
+  <si>
+    <t>Легкість оформлення відправлення.</t>
+  </si>
+  <si>
+    <t>Швидке переміщення за додатком.</t>
+  </si>
+  <si>
+    <t>Можливість розрахувати вартість доставки.</t>
+  </si>
+  <si>
+    <t>Перевірка на преривання.</t>
+  </si>
+  <si>
+    <t>Перевірка надійності.</t>
+  </si>
+  <si>
+    <t>Перевірка роботи на платформі iOS</t>
+  </si>
+  <si>
+    <t>Перевірка роботи на платформі Android</t>
+  </si>
+  <si>
+    <t>Перевірка роботи на різних мережах (Edge, 2G, 3G, 4G)</t>
+  </si>
+  <si>
+    <t>Test Case ID:</t>
+  </si>
+  <si>
+    <t>Test-01</t>
+  </si>
+  <si>
+    <t>Test Case Name:</t>
+  </si>
+  <si>
+    <t>Check form log in sign in.</t>
+  </si>
+  <si>
+    <t>Status:</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Test Type:</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Creation Date:</t>
+  </si>
+  <si>
+    <t>Priority:</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Execution Date:</t>
+  </si>
+  <si>
+    <t>Pre-Conditions:</t>
+  </si>
+  <si>
+    <t>Step #</t>
+  </si>
+  <si>
+    <t>Steps:</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Version (Build) #</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Given the user login and sign in</t>
+  </si>
+  <si>
+    <t>When the user clicks Log in.</t>
+  </si>
+  <si>
+    <t>Then the user log in system.</t>
+  </si>
+  <si>
+    <t>Given the user sign in.</t>
+  </si>
+  <si>
+    <t>When the user clicks Sign in.</t>
+  </si>
+  <si>
+    <t>Then the user sign in system.</t>
+  </si>
+  <si>
+    <t>Test Data:</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Attachments</t>
+  </si>
+  <si>
+    <t>Test-02</t>
+  </si>
+  <si>
+    <t>Сheck the banners</t>
+  </si>
+  <si>
+    <t>when the user goes to the main menu</t>
+  </si>
+  <si>
+    <t>Then banner is displayed on the main menu.</t>
+  </si>
+  <si>
+    <t>When the user tap on the banner and swipe left.</t>
+  </si>
+  <si>
+    <t>Then the banner should flip.</t>
+  </si>
+  <si>
+    <t>Test-03</t>
+  </si>
+  <si>
+    <t>Interrupt check</t>
+  </si>
+  <si>
+    <t>When a user receives a message or a call.</t>
+  </si>
+  <si>
+    <t>Then the application should continue its work and save the session.</t>
+  </si>
+  <si>
+    <t>When the user's battery is low.</t>
+  </si>
+  <si>
+    <t>Then the application should be closed.</t>
+  </si>
+  <si>
+    <t>Можливість зміни мови</t>
+  </si>
+  <si>
+    <t>Наявність головного логотипу на будь якому інтерфейсі.</t>
+  </si>
+  <si>
+    <t>Випадаюче меню з переліком індексів, а не вводити певний та згадувати а який же там індекс.</t>
+  </si>
+  <si>
+    <t>Навіщо писати вкладинки Перекази грошей по Україні та Міжнародні перекази, якщо цього не можливо зробити в додатку, а треба йти у відділення. Або зробити таку можливість, або видалити ті надписи.</t>
+  </si>
+  <si>
+    <t>Підтримка в режимі онлайн, а не відправлення повідомлення на поштову скриньку і чекати відповідь.</t>
+  </si>
+  <si>
+    <t>Зробити додаткове питання підтвердження виходу з додатку.</t>
+  </si>
+  <si>
+    <t>Кнопку "Видалити аккаунт" перенести кудись в інше місце, а то не попадешь і легко видалити акаунт.</t>
+  </si>
+  <si>
+    <t>Можливість входу за номером телефону.</t>
+  </si>
+  <si>
+    <t>Зробити інструкцію як за допомогою камери на телефоні заміряти розмір посилки.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,16 +242,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8D8D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -69,12 +309,422 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -355,46 +1005,845 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="57.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1162717A-02D1-4A3D-B24B-F68AB17ABA0A}">
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="95.140625" customWidth="1"/>
+    <col min="4" max="4" width="68.7109375" customWidth="1"/>
+    <col min="5" max="5" width="44" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.5">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.5">
+      <c r="A7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="A8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" ht="30.75">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="24">
+        <v>1</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="24">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C11" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="27"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24">
+        <v>5</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" spans="1:6" ht="28.5">
+      <c r="A15" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" spans="1:6" ht="28.5">
+      <c r="A16" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75">
+      <c r="A25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24">
+        <v>1</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="27"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24">
+        <v>2</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="27"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24">
+        <v>3</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="27"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24">
+        <v>4</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24">
+        <v>5</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="27"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="31"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75">
+      <c r="A42" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="23"/>
+      <c r="B44" s="24">
+        <v>1</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="27"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="23"/>
+      <c r="B45" s="24">
+        <v>2</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="27"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="23"/>
+      <c r="B46" s="24">
+        <v>3</v>
+      </c>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="27"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="23"/>
+      <c r="B47" s="24">
+        <v>4</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="27"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="23"/>
+      <c r="B48" s="24">
+        <v>5</v>
+      </c>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="27"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="31"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="33"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0778F1B1-3A34-4A46-B532-1CE9B612F164}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="30.75">
+      <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="45.75">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="30.75">
+      <c r="A5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="30.75">
+      <c r="A7" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
